--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.188</v>
+        <v>-13.376</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>4.7</v>
+        <v>5.496</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.05</v>
+        <v>-11.122</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.531999999999999</v>
+        <v>-7.244</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.126</v>
+        <v>-11.802</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -614,7 +614,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>7.244000000000002</v>
+        <v>6.017999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -656,10 +656,10 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.022</v>
+        <v>5.977</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.812</v>
+        <v>-13.234</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.344</v>
+        <v>5.257</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.556</v>
+        <v>6.827</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.374000000000001</v>
+        <v>-8.121</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.358</v>
+        <v>-13.331</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.628</v>
+        <v>-12.424</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -796,10 +796,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.426</v>
+        <v>5.077</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.526</v>
+        <v>-11.559</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,13 +810,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>7.262</v>
+        <v>6.412999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.058</v>
+        <v>-7.866</v>
       </c>
     </row>
     <row r="28">
@@ -838,13 +838,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.566000000000001</v>
+        <v>5.265</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.19</v>
+        <v>-7.568000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.252</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.212</v>
+        <v>-12.105</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -922,10 +922,10 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.964</v>
+        <v>8.597999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.41</v>
+        <v>-12.578</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.011999999999999</v>
+        <v>8.043999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.55</v>
+        <v>-7.715000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.696000000000001</v>
+        <v>-7.833</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.308000000000002</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="40">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.651999999999999</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="42">
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.584</v>
+        <v>-12.798</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,13 +1062,13 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.274</v>
+        <v>5.994000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-8.045999999999999</v>
+        <v>-8.153</v>
       </c>
     </row>
     <row r="46">
@@ -1107,10 +1107,10 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.584</v>
+        <v>-12.478</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.578</v>
+        <v>-7.539</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-12.944</v>
+        <v>-12.687</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.986</v>
+        <v>-8.174000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.21</v>
+        <v>-11.717</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.025999999999999</v>
+        <v>5.278</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.266</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.638</v>
+        <v>5.116</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.52</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="58">
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.77</v>
+        <v>-7.900999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.648000000000001</v>
+        <v>-7.785999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.72</v>
+        <v>-11.278</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.582</v>
+        <v>-11.547</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.524</v>
+        <v>5.362</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.678</v>
+        <v>-11.5</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1488,7 +1488,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.378</v>
+        <v>-8.068999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>4.942</v>
+        <v>6.182</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.52</v>
+        <v>8.891</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.79</v>
+        <v>-11.793</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.862</v>
+        <v>-11.83</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,13 +1580,13 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.414000000000001</v>
+        <v>5.961</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.416</v>
+        <v>-8.545999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.276000000000001</v>
+        <v>5.906000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1698,7 +1698,7 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.026000000000001</v>
+        <v>-7.306</v>
       </c>
     </row>
     <row r="91">
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.622</v>
+        <v>-13.133</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1734,13 +1734,13 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>4.843999999999999</v>
+        <v>5.008</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.118</v>
+        <v>-7.008</v>
       </c>
     </row>
     <row r="94">
@@ -1790,10 +1790,10 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.918000000000001</v>
+        <v>5.476</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.694</v>
+        <v>-10.517</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.296</v>
+        <v>-11.4</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.436000000000002</v>
+        <v>-7.471000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-13.358</v>
+        <v>-13.31</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.164</v>
+        <v>-7.536000000000001</v>
       </c>
     </row>
   </sheetData>
